--- a/flow/app/flow-kafka.xlsx
+++ b/flow/app/flow-kafka.xlsx
@@ -90,43 +90,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flow-quest-comment-create-solv-notif-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-quest-reply-create-solv-notif-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-quest-create-fnd-tag-incr-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-quest-create-solv-notif-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-post-comment-create-pofo-notif-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-post-create-pofo-notif-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-post-create-pofo-hashtag-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-user-update-fnd-verify-profile-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-user-signup-fnd-creation-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOW-USER-SIGNUP-AUTH-SENDMAIL-GROUP</t>
+    <t>flow-user-signup-fnd-creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW-USER-SIGNUP-AUTH-SENDMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-user-update-fnd-verify-profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-create-pofo-hashtag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-create-pofo-notif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-comment-create-pofo-notif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-quest-create-solv-notif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-quest-create-fnd-tag-incr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-quest-reply-create-solv-notif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-quest-comment-create-solv-notif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,6 +375,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,45 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +720,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -780,43 +780,43 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -828,121 +828,121 @@
       <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="23">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6"/>
@@ -1254,6 +1254,14 @@
     <row r="55" ht="15.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D8:H8"/>
@@ -1266,14 +1274,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flow/app/flow-kafka.xlsx
+++ b/flow/app/flow-kafka.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -375,6 +375,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -393,35 +420,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +720,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+      <selection activeCell="D17" sqref="D17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -780,43 +780,43 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -828,121 +828,121 @@
       <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="26">
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="26">
         <v>8</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="20" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="11"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6"/>
@@ -1254,14 +1254,6 @@
     <row r="55" ht="15.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D8:H8"/>
@@ -1274,6 +1266,14 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
